--- a/benchmark_system/Fast_And_Slow_Modes/Fast and Slow Modes1.xlsx
+++ b/benchmark_system/Fast_And_Slow_Modes/Fast and Slow Modes1.xlsx
@@ -1,14 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edoar\OneDrive\Documenti\git hub\PID_PIDA_Controller\benchmark_system\Fast_And_Slow_Modes\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE925248-9AA0-425A-AAFB-812CD990C734}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="31815" yWindow="1725" windowWidth="32715" windowHeight="14175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725" fullCalcOnLoad="true"/>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -78,8 +88,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -93,7 +103,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -101,36 +111,1665 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border/>
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>Multiple Equal</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="it-IT" baseline="0"/>
+              <a:t> Poles</a:t>
+            </a:r>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>pid</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4.3436740625170882E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-F771-4C6F-9EE0-29359D8819C2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>ipd</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.11495666420987513</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-F771-4C6F-9EE0-29359D8819C2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>dpi</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.19532338192434107</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-F771-4C6F-9EE0-29359D8819C2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>pida</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4.2553056964818758E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-F771-4C6F-9EE0-29359D8819C2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="448130976"/>
+        <c:axId val="448131632"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="448130976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>n</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="448131632"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="448131632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>IAE</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="448130976"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.90128887811565761"/>
+          <c:y val="0.42942629667117987"/>
+          <c:w val="8.5538394426853917E-2"/>
+          <c:h val="0.25733587512087303"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>266699</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>173355</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>390524</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>173355</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59DBCA7B-FFA9-49F0-83F4-0726020BA511}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="multiple equals poles"/>
+      <sheetName val="fast and slow model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="9">
+          <cell r="C9" t="str">
+            <v>PID</v>
+          </cell>
+          <cell r="D9" t="str">
+            <v>I-PD</v>
+          </cell>
+          <cell r="E9" t="str">
+            <v>PI-D</v>
+          </cell>
+          <cell r="F9" t="str">
+            <v>PIDA</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10">
+            <v>1</v>
+          </cell>
+          <cell r="C10">
+            <v>4.3362851562247139E-2</v>
+          </cell>
+          <cell r="D10">
+            <v>0.16100557511549032</v>
+          </cell>
+          <cell r="E10">
+            <v>0.20124397949826514</v>
+          </cell>
+          <cell r="F10">
+            <v>2.2806077411919465E-2</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11">
+            <v>2</v>
+          </cell>
+          <cell r="C11">
+            <v>0.30453507354178766</v>
+          </cell>
+          <cell r="D11">
+            <v>0.77715559175034687</v>
+          </cell>
+          <cell r="E11">
+            <v>0.62776425397152469</v>
+          </cell>
+          <cell r="F11">
+            <v>0.17827851221578025</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="B12">
+            <v>3</v>
+          </cell>
+          <cell r="C12">
+            <v>1.0568628113312053</v>
+          </cell>
+          <cell r="D12">
+            <v>1.7169618804037847</v>
+          </cell>
+          <cell r="E12">
+            <v>1.0262950684691814</v>
+          </cell>
+          <cell r="F12">
+            <v>0.4666598451209909</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="B13">
+            <v>4</v>
+          </cell>
+          <cell r="C13">
+            <v>2.0598715468817779</v>
+          </cell>
+          <cell r="D13">
+            <v>3.6154463771267666</v>
+          </cell>
+          <cell r="E13">
+            <v>2.5270466605393298</v>
+          </cell>
+          <cell r="F13">
+            <v>1.1472725689825325</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="B14">
+            <v>8</v>
+          </cell>
+          <cell r="C14">
+            <v>2.0598715470000002</v>
+          </cell>
+          <cell r="D14">
+            <v>3.615446377</v>
+          </cell>
+          <cell r="E14">
+            <v>2.527046661</v>
+          </cell>
+          <cell r="F14">
+            <v>1.1472725690000001</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1">
+        <row r="2">
+          <cell r="B2">
+            <v>4.3436740625170882E-2</v>
+          </cell>
+          <cell r="C2">
+            <v>0.11495666420987513</v>
+          </cell>
+          <cell r="D2">
+            <v>0.19532338192434107</v>
+          </cell>
+          <cell r="E2">
+            <v>4.2553056964818758E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E16"/>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="B2:E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.140625" customWidth="true"/>
-    <col min="2" max="2" width="13.7109375" customWidth="true"/>
-    <col min="3" max="3" width="12.7109375" customWidth="true"/>
-    <col min="4" max="4" width="12.7109375" customWidth="true"/>
-    <col min="5" max="5" width="13.7109375" customWidth="true"/>
+    <col min="1" max="1" width="12.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="3" max="4" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -147,12 +1786,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.043436740625170882</v>
+        <v>4.3436740625170882E-2</v>
       </c>
       <c r="C2">
         <v>0.11495666420987513</v>
@@ -161,10 +1800,10 @@
         <v>0.19532338192434107</v>
       </c>
       <c r="E2">
-        <v>0.042553056964818758</v>
+        <v>4.2553056964818758E-2</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -181,7 +1820,7 @@
         <v>9.7403141823637291</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -198,7 +1837,7 @@
         <v>141.97651207903942</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -215,7 +1854,7 @@
         <v>0.37469943308658493</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -223,7 +1862,7 @@
         <v>21.884697884488297</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -240,7 +1879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -257,7 +1896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -274,7 +1913,7 @@
         <v>19.999173733374626</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -282,12 +1921,12 @@
         <v>8.0469151070051321</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.025242940722648044</v>
+        <v>2.5242940722648044E-2</v>
       </c>
       <c r="C11">
         <v>0.2155672595328452</v>
@@ -296,10 +1935,10 @@
         <v>0.31070251689593914</v>
       </c>
       <c r="E11">
-        <v>0.024310914340384286</v>
+        <v>2.4310914340384286E-2</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -316,7 +1955,7 @@
         <v>0.20696433091334829</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -333,24 +1972,24 @@
         <v>35.371245571299113</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -367,12 +2006,12 @@
         <v>1.3537124557129911</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>0.062515264832876088</v>
+        <v>6.2515264832876088E-2</v>
       </c>
       <c r="C16">
         <v>0.33319120840095789</v>
@@ -381,9 +2020,11 @@
         <v>2.8272686605064794</v>
       </c>
       <c r="E16">
-        <v>0.061624876929306502</v>
+        <v>6.1624876929306502E-2</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>